--- a/biology/Zoologie/Tetanocera_alireticulata/Tetanocera_alireticulata.xlsx
+++ b/biology/Zoologie/Tetanocera_alireticulata/Tetanocera_alireticulata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tetanocera alireticulata est une espèce fossile d'insectes diptères de la famille des Sciomyzidae.
 </t>
@@ -511,13 +523,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Tetanocera alireticulata est décrite en 1937 par le paléontologue français Nicolas Théobald (1903-1981) dans sa thèse[1]. 
-Fossiles
-L'holotype Am25 ou MNHN.F.B24456, de l'ère Cénozoïque, et de l'époque Chattien ou Oligocène supérieur (28,4 à 23,03 Ma) fait partie des collections du Muséum national d'histoire naturelle de Paris et vient du gypse d'Aix-en-Provence[2],[3].
-Étymologie
-L'épithète specifique latine alireticulata signifie « ailes réticulées ».
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Tetanocera alireticulata est décrite en 1937 par le paléontologue français Nicolas Théobald (1903-1981) dans sa thèse. 
 </t>
         </is>
       </c>
@@ -543,18 +553,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Classification</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Caractères
-La diagnose de Nicolas Théobald en 1937[2],[note 1] : 
-« Insecte noir brunâtre, ailes dépassant l'abdomen. Tête noire ; deux gros yeux latéraux ; front saillant ; soies ocellaires très longues, deux soies orbitales ; antennes dressées, deuxième article élargi, aussi long que le troisième, chête plumeux. Thorax ovale. Pattes velues, cuisse et tibia II avec éperons allongés. Ailes larges, enfumées ; nervure costale avec cils serrés à la partie moyenne, quelques spinules ; microtriches sur C et dans les cellules. Ces microtriches couvrent toute la surface de l'aile et semblent régulièrement distribuées suivant des directions se coupant à angle droit. Nervation (voir dessin). Abdomen brunâtre, pyriforme, l'appareil copulateur fait saillie. »[2].
-Dimensions
-La longueur totale est de 8,5 mm ; la tête a une longueur de 1 mm ; le thorax a une longueur de 3 mm ; l'abdomen a une longueur de 5,5 mm ; l'aile a une longueur de 7,5 mm et une largeur de 2,6 mm[2].
-Affinités
-« Présente bien les caractères de g. Tetanocera. Förster cite de Brunnstatt deux espèces de Tetanocera, mais les échantillons sont trop mal conservés pour pouvoir servir de termes de comparaison. »[2].
+          <t>Fossiles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotype Am25 ou MNHN.F.B24456, de l'ère Cénozoïque, et de l'époque Chattien ou Oligocène supérieur (28,4 à 23,03 Ma) fait partie des collections du Muséum national d'histoire naturelle de Paris et vient du gypse d'Aix-en-Provence,.
 </t>
         </is>
       </c>
@@ -580,13 +590,166 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète specifique latine alireticulata signifie « ailes réticulées ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Tetanocera_alireticulata</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tetanocera_alireticulata</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Caractères</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+La diagnose de Nicolas Théobald en 1937,[note 1] : 
+« Insecte noir brunâtre, ailes dépassant l'abdomen. Tête noire ; deux gros yeux latéraux ; front saillant ; soies ocellaires très longues, deux soies orbitales ; antennes dressées, deuxième article élargi, aussi long que le troisième, chête plumeux. Thorax ovale. Pattes velues, cuisse et tibia II avec éperons allongés. Ailes larges, enfumées ; nervure costale avec cils serrés à la partie moyenne, quelques spinules ; microtriches sur C et dans les cellules. Ces microtriches couvrent toute la surface de l'aile et semblent régulièrement distribuées suivant des directions se coupant à angle droit. Nervation (voir dessin). Abdomen brunâtre, pyriforme, l'appareil copulateur fait saillie. ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Tetanocera_alireticulata</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tetanocera_alireticulata</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Dimensions</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La longueur totale est de 8,5 mm ; la tête a une longueur de 1 mm ; le thorax a une longueur de 3 mm ; l'abdomen a une longueur de 5,5 mm ; l'aile a une longueur de 7,5 mm et une largeur de 2,6 mm.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Tetanocera_alireticulata</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tetanocera_alireticulata</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Affinités</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+« Présente bien les caractères de g. Tetanocera. Förster cite de Brunnstatt deux espèces de Tetanocera, mais les échantillons sont trop mal conservés pour pouvoir servir de termes de comparaison. ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Tetanocera_alireticulata</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tetanocera_alireticulata</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">
-« Larves aquatiques, phytophages ou saprophages ; adultes vivant dans les prairies, bois et forêts humides. »[2].
+« Larves aquatiques, phytophages ou saprophages ; adultes vivant dans les prairies, bois et forêts humides. ».
 </t>
         </is>
       </c>
